--- a/downloads/hazard.xlsx
+++ b/downloads/hazard.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,16 +505,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45664.11039351852</v>
+        <v>45796.3709837963</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>数据中国积分经营什么这里信息.</t>
+          <t>比较选择使用显示提供无法.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>或者建设如此研究国际用户公司.</t>
+          <t>详细孩子工具使用安全现在.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -522,31 +522,31 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>石波</t>
+          <t>张秀英</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>陈柳</t>
+          <t>侯凯</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>还有图片选择查看大学使用.</t>
+          <t>分析目前如果发表她的音乐有关安全.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>李秀珍</t>
+          <t>张秀珍</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>最后今年生产必须类型.</t>
+          <t>他们继续作品因此所有特别不是.</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>8</v>
@@ -557,16 +557,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45681.0612962963</v>
+        <v>45658.58396990741</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>不要虽然女人比较然后时候.</t>
+          <t>企业发表必须这个学生方面.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>希望比较社会密码.</t>
+          <t>介绍如果原因选择.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -574,34 +574,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>张芳</t>
+          <t>魏瑞</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>刘慧</t>
+          <t>陈淑英</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>工具产品登录手机任何加入.</t>
+          <t>处理成功直接浏览行业上海.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>马琳</t>
+          <t>梁桂花</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>帖子介绍设计各种文化功能.</t>
+          <t>生产所以时间网站为什.</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -609,51 +609,51 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45752.42181712963</v>
+        <v>45660.46587962963</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>北京原因用户.</t>
+          <t>只是操作拥有.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大学学习政府产品.</t>
+          <t>电脑主要责任最新一种一次状态来源.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>冼博</t>
+          <t>黄丽</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>周娜</t>
+          <t>赵丽华</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>更多免费名称会员有些非常北京作品.</t>
+          <t>内容美国空间开始.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>罗艳</t>
+          <t>李洁</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>作者关系标准目前您的语言.</t>
+          <t>显示大家有关品牌历史浏览.</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -661,51 +661,51 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45783.60439814815</v>
+        <v>45686.85892361111</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>有些通过名称所有原因不要.</t>
+          <t>注意说明推荐需要.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>朋友更新支持计划关于合作你们.</t>
+          <t>类别管理这些系统市场.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>郝鹏</t>
+          <t>杨辉</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>孟桂芳</t>
+          <t>孙飞</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>作品科技女人觉得一点.</t>
+          <t>起来以后更新.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>张颖</t>
+          <t>段涛</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>然后今年类别教育新闻感觉数据.</t>
+          <t>中国的是加入的是应用.</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -713,16 +713,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45660.72831018519</v>
+        <v>45769.75049768519</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国家建设拥有还是完全使用任何.</t>
+          <t>有限朋友感觉应用要求城市全部网站.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>新闻关于提供语言可是那个信息.</t>
+          <t>只是推荐有些法律地区.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -730,34 +730,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>李明</t>
+          <t>梁博</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>李慧</t>
+          <t>楚亮</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>任何主要发生大家的人.</t>
+          <t>全部商品行业.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>李丽华</t>
+          <t>缪琴</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>企业全部深圳简介是一直接公司.</t>
+          <t>注意出现那么我的可以其中.</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -765,51 +765,51 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45779.41023148148</v>
+        <v>45676.92318287037</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>表示位置认为正在.</t>
+          <t>提供最后喜欢虽然过程广告制作所有.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>一下这些语言还是.</t>
+          <t>支持有关责任音乐.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>马健</t>
+          <t>张伟</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>彭凤英</t>
+          <t>马建平</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>比较所有最后能够规定对于基本.</t>
+          <t>是一以后推荐非常软件各种手机.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>荆文</t>
+          <t>李秀英</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>看到大家人员一个一下.</t>
+          <t>的人支持实现关系应用感觉正在.</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -817,51 +817,51 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45771.59230324074</v>
+        <v>45782.23857638889</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>那些设计不是搜索.</t>
+          <t>深圳具有更新加入.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>质量一般方面本站产品不断.</t>
+          <t>原因完成因为只要企业.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>卢宇</t>
+          <t>李玲</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>刘瑞</t>
+          <t>吕建军</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>公司本站威望质量.</t>
+          <t>他的作者他的投资他们成为当然品牌.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>闻冬梅</t>
+          <t>马俊</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>操作来源地区还是一定文化.</t>
+          <t>开始工具事情资源您的之后孩子一切.</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -869,51 +869,51 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45663.17239583333</v>
+        <v>45703.34090277777</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>无法首页基本一个.</t>
+          <t>人员日本这里只有全部.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>网上具有知道信息方法社会.</t>
+          <t>要求认为电脑虽然只有客户解决.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>迟超</t>
+          <t>苏柳</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>李玲</t>
+          <t>谢建华</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>联系为了时候.</t>
+          <t>特别城市游戏日期商品欢迎介绍.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>杨兵</t>
+          <t>左琴</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>就是搜索你的一点.</t>
+          <t>进行孩子一样非常.</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -921,51 +921,51 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45769.66288194444</v>
+        <v>45739.90090277778</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>网络要求资料人员.</t>
+          <t>结果以及销售.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>一般论坛历史名称这么公司这样.</t>
+          <t>关系只是电脑什么两个中文.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>李秀荣</t>
+          <t>戴杨</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>石想</t>
+          <t>杨雪梅</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>联系开发语言需要科技知道.</t>
+          <t>当前能力专业得到因为生活.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>任瑜</t>
+          <t>邱宁</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>然后是否关于工程联系要求.</t>
+          <t>对于来自发展选择市场.</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -973,51 +973,51 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45707.60471064815</v>
+        <v>45742.15851851852</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>产品企业名称美国看到一次这些.</t>
+          <t>中心技术不要.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>国家认为软件.</t>
+          <t>你们希望地址文章一起自己一种.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>张淑华</t>
+          <t>王楠</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>李岩</t>
+          <t>钟慧</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>希望电影其他很多资源质量.</t>
+          <t>文化现在还有其中地址个人不同什么.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>萧成</t>
+          <t>周佳</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>留言电脑这样进入论坛.</t>
+          <t>行业类型结果因此一般环境影响.</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1025,96 +1025,96 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45715.29993055556</v>
+        <v>45727.09524305556</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>具有到了中心简介.</t>
+          <t>点击可是比较用户功能这里都是品牌.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>以上结果计划.</t>
+          <t>继续什么要求.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>周鹏</t>
+          <t>吕刚</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>王鑫</t>
+          <t>张建军</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>世界或者虽然.</t>
+          <t>不断软件东西资源发生认为孩子.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>徐杨</t>
+          <t>李丽</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>中国本站可是事情公司实现.</t>
+          <t>但是因此提供要求注意表示不是.</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45686.66996527778</v>
+        <v>45684.12121527778</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>学校等级欢迎一次通过最后环境.</t>
+          <t>运行评论希望原因一定地方.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>客户成功责任人民.</t>
+          <t>美国积分当前一切标准.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>黄慧</t>
+          <t>许畅</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>王华</t>
+          <t>黄磊</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>电子时间会员品牌人员类别.</t>
+          <t>国家通过同时来自社区网上.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>陈林</t>
+          <t>王鹏</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>一直为什部分所以孩子发生那些.</t>
+          <t>之间解决我们所以自己主要.</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1126,123 +1126,123 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45683.71409722222</v>
+        <v>45747.11021990741</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>人民关系人民免费地区科技.</t>
+          <t>社会免费看到.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>销售其他手机由于项目.</t>
+          <t>主题发表企业制作应用大家怎么.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>刘海燕</t>
+          <t>雷淑兰</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>王冬梅</t>
+          <t>王婷婷</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>市场到了是一内容特别需要.</t>
+          <t>就是地区介绍查看广告.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>宋磊</t>
+          <t>马杨</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>使用能够关于继续查看.</t>
+          <t>发生谢谢来自部门经验.</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45688.3322337963</v>
+        <v>45787.25732638889</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>任何由于加入不断只是发生参加简介.</t>
+          <t>问题部分质量安全企业发生.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>世界如果那个所以女人比较.</t>
+          <t>比较你的由于主题业务有关.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>杨博</t>
+          <t>武莹</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>覃丽娟</t>
+          <t>龙小红</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>到了更新情况使用经营名称.</t>
+          <t>大家还有学习功能准备.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>高秀荣</t>
+          <t>梁桂芳</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>通过设计问题价格不能显示方式.</t>
+          <t>的话类型方式已经质量不能.</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45781.90263888889</v>
+        <v>45745.43425925926</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>部分教育成功在线到了免费两个具有.</t>
+          <t>准备资料对于其实我的根据.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>她的孩子你的.</t>
+          <t>谢谢孩子项目记者登录威望.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1250,51 +1250,51 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>刘伟</t>
+          <t>申秀芳</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>王波</t>
+          <t>陈小红</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>开始不要信息是否社会如果.</t>
+          <t>责任发展人民业务.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>王雷</t>
+          <t>李桂英</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>图片信息完成科技提高文化汽车.</t>
+          <t>组织生产语言帮助.</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45767.17803240741</v>
+        <v>45784.35030092593</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>开始商品介绍简介什么.</t>
+          <t>发现使用什么生活解决政府注意.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>分析服务日期同时帖子.</t>
+          <t>成为研究关于感觉免费设备.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1302,103 +1302,103 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>杨冬梅</t>
+          <t>周琴</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>郑倩</t>
+          <t>唐颖</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>参加登录合作方式来源有关分析一次.</t>
+          <t>然后一定有限可是发生一般重要一定.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>李红梅</t>
+          <t>田桂兰</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>评论这样还是的是评论.</t>
+          <t>表示关于发现最大历史不过.</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45681.49133101852</v>
+        <v>45760.54167824074</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>次数那个一个专业.</t>
+          <t>因此出现我们继续生活数据.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>或者日期开发公司觉得.</t>
+          <t>今天规定不同更多之间.</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>张阳</t>
+          <t>孟平</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>高艳</t>
+          <t>陈斌</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>这样决定欢迎回复有关.</t>
+          <t>科技服务网上项目因为成功目前这些.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>李波</t>
+          <t>蒋海燕</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>查看在线什么很多出现.</t>
+          <t>单位类型市场还是自己留言能力.</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45782.56171296296</v>
+        <v>45676.35467592593</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>你的标题发布有限操作.</t>
+          <t>标准由于社会的话因此.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>不是准备中心介绍不过免费提供.</t>
+          <t>认为起来看到.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1406,51 +1406,51 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>金桂香</t>
+          <t>刘桂花</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>岳波</t>
+          <t>欧云</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>拥有网站人民方式有些.</t>
+          <t>包括中国这种.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>张军</t>
+          <t>王倩</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>最后国际方式个人完全会员.</t>
+          <t>之后在线是否网站之后.</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45704.63398148148</v>
+        <v>45757.32697916667</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>制作状态生产政府.</t>
+          <t>那么根据有限地址.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>自己他的更新解决深圳论坛.</t>
+          <t>客户影响两个新闻在线.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1458,51 +1458,51 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>周平</t>
+          <t>田帆</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>陈玉珍</t>
+          <t>杨帅</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>系统如此如果可能组织.</t>
+          <t>组织一起世界提高.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>李琳</t>
+          <t>杨琴</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>男人方面解决处理.</t>
+          <t>大家电话新闻我们可能.</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45692.64591435185</v>
+        <v>45666.60341435186</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>精华因此影响其中一个.</t>
+          <t>资料只有那个地方.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>时候设备得到一个.</t>
+          <t>知道记者所以人民开发.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1510,51 +1510,51 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>刘雪梅</t>
+          <t>马芳</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>彭玉珍</t>
+          <t>齐秀兰</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>设备人民合作建设这里.</t>
+          <t>主要市场包括使用感觉发展大家.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>叶东</t>
+          <t>郭健</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>政府全部安全他的.</t>
+          <t>感觉喜欢公司价格联系学习.</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45755.26270833334</v>
+        <v>45748.00494212963</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文件各种计划单位.</t>
+          <t>其实东西不会提高的话.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>时候图片大家一次一次这样.</t>
+          <t>成为国际一直.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1562,103 +1562,103 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>周丹</t>
+          <t>张桂珍</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>李波</t>
+          <t>张建国</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>非常操作准备是否.</t>
+          <t>学习一起今天起来都是.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>邱伟</t>
+          <t>廖亮</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>作为次数报告增加个人.</t>
+          <t>大小提供今天为什美国大小.</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45692.47438657407</v>
+        <v>45672.20204861111</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>就是一起本站教育销售这么.</t>
+          <t>商品相关以后世界两个注册社区.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>部门人民到了提供国家也是.</t>
+          <t>工具发布城市可能.</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>李建</t>
+          <t>张秀珍</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>李林</t>
+          <t>房凤兰</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>根据由于帖子帮助等级.</t>
+          <t>这里具有留言研究学习非常目前.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>王刚</t>
+          <t>孙英</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>完成商品注意全国.</t>
+          <t>工具其实专业然后什么.</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45749.18896990741</v>
+        <v>45721.04084490741</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>必须功能北京原因.</t>
+          <t>计划中国不是社会人员.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>电话或者位置而且其他说明各种.</t>
+          <t>责任过程经营经验非常如此增加.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1666,155 +1666,155 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>赵洋</t>
+          <t>卢凤英</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>阎飞</t>
+          <t>林桂珍</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>等级计划很多方式首页这是.</t>
+          <t>一直时候其实以上.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>查涛</t>
+          <t>王海燕</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>然后开始只要为什能力而且工程.</t>
+          <t>是否今年方式因此日本.</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45784.16707175926</v>
+        <v>45703.42318287037</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>游戏提供等级自己大家以上.</t>
+          <t>工作很多文化那么开始觉得什么.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>首页由于等级帖子帮助为了政府所以.</t>
+          <t>使用解决谢谢欢迎进行本站很多.</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>刘红梅</t>
+          <t>曲桂兰</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>谢军</t>
+          <t>季淑珍</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>男人最后参加地址同时可是包括.</t>
+          <t>新闻那个一个.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>孙静</t>
+          <t>刘婷婷</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>女人作者北京价格技术专业.</t>
+          <t>类别搜索进行完全一般还是而且.</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45776.00100694445</v>
+        <v>45750.27741898148</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>为了研究选择人民工具.</t>
+          <t>经济有些感觉图片.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>方面经营日本不断情况这是以下.</t>
+          <t>安全虽然留言注意.</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>傅文</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>徐玉梅</t>
+          <t>孟春梅</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>而且社会继续等级.</t>
+          <t>根据美国规定实现北京.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>张辉</t>
+          <t>孙浩</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>不能社会注册时间.</t>
+          <t>中文上海怎么内容能够以后最新.</t>
         </is>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45707.95300925926</v>
+        <v>45717.77204861111</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>时间音乐最新一定不要.</t>
+          <t>部门很多问题问题部分完全.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>以后技术阅读文件这样.</t>
+          <t>状态由于他的没有.</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1822,155 +1822,155 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>蔡玉</t>
+          <t>刘强</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>柳敏</t>
+          <t>陆利</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>日期数据网站一定计划发现如果.</t>
+          <t>能够生活希望用户名称根据.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>张杰</t>
+          <t>靳丹丹</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>本站怎么当然关系.</t>
+          <t>空间很多世界朋友原因帖子.</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45750.94430555555</v>
+        <v>45730.11283564815</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>不同这些图片文章.</t>
+          <t>表示来源会员一样知道网络.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>成为现在继续程序地方广告品牌.</t>
+          <t>在线所有直接时间作者但是.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>梁金凤</t>
+          <t>刘玲</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>蒲秀兰</t>
+          <t>孙磊</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>进行处理包括谢谢两个必须最新行业.</t>
+          <t>个人要求这样希望企业需要.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>王春梅</t>
+          <t>廖春梅</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>发现这么因为需要然后注意.</t>
+          <t>重要社区用户过程.</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45771.1997337963</v>
+        <v>45705.41553240741</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>帮助参加游戏根据决定一下你的.</t>
+          <t>当前情况具有问题帮助国际提供美国.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>过程一定人民表示地区.</t>
+          <t>广告点击下载这样原因.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>王波</t>
+          <t>谢欣</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>喻丽娟</t>
+          <t>帅桂荣</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>数据应用合作系统会员进行.</t>
+          <t>学习系统世界教育部分关于名称.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>陈畅</t>
+          <t>谢芳</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>增加完成问题游戏是一孩子.</t>
+          <t>原因您的学生运行.</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45706.87925925926</v>
+        <v>45724.8431712963</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>不同日本您的科技应该说明任何.</t>
+          <t>提供责任服务.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>有些发展工作情况文件首页.</t>
+          <t>作者开发积分包括可能.</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1978,259 +1978,259 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>王桂香</t>
+          <t>黄明</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>刘淑英</t>
+          <t>胡梅</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>国家美国商品软件.</t>
+          <t>很多提高能力.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>王欢</t>
+          <t>潘玉梅</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>学习发布名称.</t>
+          <t>游戏是否不要增加时候已经一样.</t>
         </is>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45737.6655787037</v>
+        <v>45772.32261574074</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>对于手机这些到了.</t>
+          <t>加入大学各种城市欢迎文章相关.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>只要浏览人民最后网上.</t>
+          <t>必须对于一些首页发展人员.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>冯强</t>
+          <t>刘文</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>李俊</t>
+          <t>陈博</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>不同人员新闻不要.</t>
+          <t>怎么那个主题推荐地方以及帖子.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>周玉珍</t>
+          <t>刘秀芳</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>手机法律日期.</t>
+          <t>价格发展她的首页.</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45751.57936342592</v>
+        <v>45778.55260416667</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>这是国家会员还是最后首页系列同时.</t>
+          <t>法律电脑对于的人下载要求电子.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>今天的话学生经济中文那个以下喜欢.</t>
+          <t>准备很多她的国际.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>朱建国</t>
+          <t>成玉</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>夏宁</t>
+          <t>张莉</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>控制介绍大家.</t>
+          <t>有关这样运行记者.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>李瑞</t>
+          <t>卢宇</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>这些下载之后安全发布学校威望.</t>
+          <t>投资增加准备设备工作各种之间.</t>
         </is>
       </c>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45748.23188657407</v>
+        <v>45729.60337962963</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>最大女人来源之后国家加入.</t>
+          <t>投资网络中国发布不同地方如此.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>孩子他的会员世界当前名称.</t>
+          <t>这些网络首页不过其实.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>黄娟</t>
+          <t>倪建国</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>薛雷</t>
+          <t>罗鑫</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>管理但是音乐如此女人发布.</t>
+          <t>有些资料这些通过开发情况.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>吴飞</t>
+          <t>杨秀华</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>项目自己环境历史分析一起地方.</t>
+          <t>那些两个服务状态.</t>
         </is>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45700.6534837963</v>
+        <v>45694.20890046296</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>出来计划社区.</t>
+          <t>地区可是完全这是.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>下载那么您的地址已经使用影响.</t>
+          <t>内容登录一个一些在线方面.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>赵平</t>
+          <t>刘超</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>蒋洁</t>
+          <t>刘秀兰</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>社会网络登录记者更新.</t>
+          <t>实现这个经营.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>金琳</t>
+          <t>庞华</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>不是积分感觉工作.</t>
+          <t>在线一般我们规定.</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45658.7891087963</v>
+        <v>45717.83747685186</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>的是北京知道上海深圳留言一定操作.</t>
+          <t>过程不要或者.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>提供没有政府合作.</t>
+          <t>发现资料现在这里.</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2238,103 +2238,103 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>赵帆</t>
+          <t>张峰</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>李桂荣</t>
+          <t>魏婷</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>朋友关系一定学生.</t>
+          <t>继续个人客户状态人民注意.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>刘秀兰</t>
+          <t>何柳</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>东西可以密码相关觉得任何.</t>
+          <t>她的之间可以部门电话.</t>
         </is>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45770.96840277778</v>
+        <v>45738.63430555556</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>来自表示过程这些虽然.</t>
+          <t>精华世界浏览自己日本社会.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>威望谢谢名称网站客户用户.</t>
+          <t>经营工具重要因此然后.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>古秀芳</t>
+          <t>瞿欣</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>徐彬</t>
+          <t>郑杨</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>一切一样技术所以来源各种.</t>
+          <t>环境首页是否以下一些.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>祝利</t>
+          <t>梁建</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>类型不能客户发表简介今年销售.</t>
+          <t>网站电脑出来下载推荐.</t>
         </is>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45699.38064814815</v>
+        <v>45781.45930555555</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>只要一直能力经验谢谢男人.</t>
+          <t>自己以下不断注册.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>位置完成登录包括质量.</t>
+          <t>发生规定经营.</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2342,103 +2342,103 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>黄玉</t>
+          <t>王凯</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>覃兰英</t>
+          <t>吕雷</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>合作国家报告发布.</t>
+          <t>精华您的设备解决什么大小.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>丁艳</t>
+          <t>曹颖</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>是否威望成功之后的人电子状态.</t>
+          <t>密码其实今年因为最后全部研究汽车.</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45694.10953703704</v>
+        <v>45771.46876157408</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>方面国际自己之后你们市场威望.</t>
+          <t>法律一起城市程序公司.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>只是学习企业市场这种决定因为.</t>
+          <t>密码到了所以日本.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>史兵</t>
+          <t>张涛</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>张淑兰</t>
+          <t>王荣</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>上海包括服务欢迎提高日期名称控制.</t>
+          <t>业务全国资源日期.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>李帅</t>
+          <t>陆旭</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>内容详细到了男人你的电影活动.</t>
+          <t>中文全部这是很多文章设计技术.</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45707.87762731482</v>
+        <v>45704.44068287037</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>现在这是情况全部男人解决出来自己.</t>
+          <t>方式首页专业文化历史一次空间.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>游戏可以积分帮助这里等级.</t>
+          <t>需要中心管理其实游戏功能参加.</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2446,51 +2446,51 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>王玉英</t>
+          <t>李伟</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>韩娟</t>
+          <t>孙佳</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>时候国内学生政府.</t>
+          <t>社区活动详细实现功能来源日期全部.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>王秀芳</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>一种他们说明准备资源.</t>
+          <t>公司程序同时这样以下.</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45769.30034722222</v>
+        <v>45792.97861111111</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>名称然后简介之间对于留言.</t>
+          <t>大小选择只有手机.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>网上解决以后方面重要关系.</t>
+          <t>生产现在控制作者一些.</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2498,51 +2498,51 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>胡林</t>
+          <t>王桂花</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>李丹丹</t>
+          <t>林刚</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>喜欢事情记者.</t>
+          <t>关于最后下载一次.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>梁桂花</t>
+          <t>范波</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>学校历史能够两个建设操作认为.</t>
+          <t>最新解决游戏销售.</t>
         </is>
       </c>
       <c r="K40" t="n">
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45749.50949074074</v>
+        <v>45730.77971064814</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>来源浏览这是出现社区.</t>
+          <t>希望孩子经验那些能力各种.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>深圳这种世界只有只要的是.</t>
+          <t>看到新闻无法你的感觉质量使用.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2550,155 +2550,155 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>徐春梅</t>
+          <t>李玉华</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>王红梅</t>
+          <t>娄云</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>中国当然本站价格合作学习.</t>
+          <t>电话问题今天希望美国重要起来不断.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>胡平</t>
+          <t>赵颖</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>应该开发更多用户加入方面而且.</t>
+          <t>服务会员欢迎重要最后根据工程规定.</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45673.5681712963</v>
+        <v>45658.4030787037</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>我的选择可以还有.</t>
+          <t>首页电脑选择国家公司如果.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>工具由于最新.</t>
+          <t>得到开发选择名称参加.</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>孙利</t>
+          <t>张宁</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>马桂英</t>
+          <t>苏桂香</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>方式回复继续女人这里关系希望.</t>
+          <t>其他各种积分当前成功.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>阎坤</t>
+          <t>傅楠</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>过程作为中国不断安全根据方法.</t>
+          <t>留言介绍推荐目前这个学生目前.</t>
         </is>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45751.64109953704</v>
+        <v>45694.72369212963</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>详细结果基本如何认为应用一直.</t>
+          <t>位置解决完全这么一般然后生活.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>当前也是没有的话国际.</t>
+          <t>其中一种分析.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>孔欢</t>
+          <t>萧成</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>谢博</t>
+          <t>王龙</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>文化城市一般发生报告.</t>
+          <t>为什功能怎么.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>陈峰</t>
+          <t>林军</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>现在标准法律那么参加可以威望.</t>
+          <t>中文已经标题文件两个.</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45787.41366898148</v>
+        <v>45674.66049768519</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>自己威望威望销售感觉程序.</t>
+          <t>电影这里生活文化两个.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>准备作为只是需要就是这么这样.</t>
+          <t>应该生产作者单位支持一起.</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2706,31 +2706,31 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>唐勇</t>
+          <t>王洋</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>郭芳</t>
+          <t>刘磊</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>表示加入免费之间经验大家系列.</t>
+          <t>对于解决研究必须发展两个.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>李静</t>
+          <t>石晨</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>学校质量简介这里实现一直.</t>
+          <t>帖子方式拥有政府.</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>5</v>
@@ -2738,71 +2738,71 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45693.20883101852</v>
+        <v>45736.29287037037</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>用户一般价格过程社会开发主要.</t>
+          <t>然后文章我的完成制作这个这里文章.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>学习标准所有.</t>
+          <t>等级对于一个到了简介大家为了.</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>沈利</t>
+          <t>王雷</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>章岩</t>
+          <t>樊敏</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>有限出来实现开始已经.</t>
+          <t>语言国内登录中心处理.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>王晨</t>
+          <t>张丽华</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>环境公司中文参加成功然后.</t>
+          <t>目前个人选择其实.</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45789.92658564815</v>
+        <v>45774.11836805556</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>电子公司的话就是公司.</t>
+          <t>生产点击工作威望作品开始图片.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>不要详细过程注意那个注意需要分析.</t>
+          <t>发表报告评论非常不断.</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2810,27 +2810,27 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>陈勇</t>
+          <t>姚淑华</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>陆桂芝</t>
+          <t>彭玉珍</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>经营价格责任.</t>
+          <t>发生是否政府进入技术.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>翟凤兰</t>
+          <t>王建国</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>专业行业一些过程实现学校.</t>
+          <t>计划直接只要当前资源感觉网站最新.</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2842,19 +2842,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45791.27783564815</v>
+        <v>45735.41804398148</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>学生不要评论也是相关当前注意孩子.</t>
+          <t>不过参加女人以后操作时候.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>城市这么记者根据网络.</t>
+          <t>自己功能标准行业社会.</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2862,51 +2862,51 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>张洋</t>
+          <t>朱峰</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>陈辉</t>
+          <t>姬瑞</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>这里数据需要科技积分.</t>
+          <t>不同喜欢可是.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>袁凯</t>
+          <t>刘英</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>语言商品孩子.</t>
+          <t>还有起来系统也是更多.</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45730.62780092593</v>
+        <v>45788.26827546296</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>实现具有都是.</t>
+          <t>认为支持觉得选择地址联系时间.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>或者出现谢谢.</t>
+          <t>男人活动管理支持.</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2914,51 +2914,51 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>朱飞</t>
+          <t>宫龙</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>李海燕</t>
+          <t>陈红梅</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>觉得等级学习其他非常为了根据具有.</t>
+          <t>学校各种起来发展注意方式一个.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>刘超</t>
+          <t>谢宁</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>解决虽然或者中心正在建设市场是一.</t>
+          <t>科技行业其他数据环境.</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45696.27988425926</v>
+        <v>45673.99979166667</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>你们密码学校以及.</t>
+          <t>科技销售发表社会全国或者.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>对于开始注册不过也是首页.</t>
+          <t>积分质量活动这是一种.</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2966,51 +2966,51 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>王桂英</t>
+          <t>王桂芝</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>王梅</t>
+          <t>金琴</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>客户只是作为内容进行女人生活.</t>
+          <t>起来如何位置信息是否那么.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>刘涛</t>
+          <t>王莹</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>就是北京解决所以.</t>
+          <t>发展如何一次这些.</t>
         </is>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45790.35761574074</v>
+        <v>45766.96125</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>研究完成电话中文要求方式.</t>
+          <t>教育到了本站更新中心.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>能力为了服务深圳准备.</t>
+          <t>包括不能原因地区.</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -3018,31 +3018,31 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>刘帅</t>
+          <t>丁淑英</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>王金凤</t>
+          <t>凌建</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>人民得到增加时候您的非常.</t>
+          <t>这种直接社会使用功能看到但是看到.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>张华</t>
+          <t>杨涛</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>积分主题没有介绍.</t>
+          <t>更新国内工具单位国际.</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>2</v>
@@ -3050,71 +3050,71 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45734.63502314815</v>
+        <v>45676.90107638889</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>数据报告公司.</t>
+          <t>功能不是客户选择全部进行.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>最新相关就是怎么品牌这个历史.</t>
+          <t>一次就是中文一般登录点击.</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>周建平</t>
+          <t>郭磊</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>李玉华</t>
+          <t>黄玉华</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>世界类别地方选择应该.</t>
+          <t>而且为什价格结果汽车方法.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>李欢</t>
+          <t>周春梅</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>还是产品最大他的很多为什资料.</t>
+          <t>开始电脑点击认为特别城市过程.</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45735.74839120371</v>
+        <v>45749.75965277778</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>那个当前价格搜索有些.</t>
+          <t>国家只有但是中国北京最大.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>他的推荐报告因为服务.</t>
+          <t>这些技术决定质量部门开发.</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -3122,103 +3122,103 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>季军</t>
+          <t>刘建军</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>徐强</t>
+          <t>王小红</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>以下到了历史只是资料.</t>
+          <t>全国增加推荐作品首页然后一次名称.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>石玲</t>
+          <t>杨莹</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>文化世界设备生产活动.</t>
+          <t>方式网络国际两个次数价格.</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45772.41541666666</v>
+        <v>45661.74106481481</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>参加方法需要来源.</t>
+          <t>城市法律网站发表就是.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>是否比较中文开发经营时候状态.</t>
+          <t>由于资料处理自己一些具有之后.</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>勾玲</t>
+          <t>王志强</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>花成</t>
+          <t>刘瑞</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>她的品牌这些.</t>
+          <t>客户一般而且有些.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>胡林</t>
+          <t>陈颖</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>电话技术而且最后表示.</t>
+          <t>她的一直解决生产帮助客户.</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45695.44554398148</v>
+        <v>45710.39555555556</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>为什论坛包括自己法律一定.</t>
+          <t>组织环境自己欢迎.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>不会部门有些以及直接文化.</t>
+          <t>数据进入自己任何继续地址.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -3226,31 +3226,31 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>李红霞</t>
+          <t>侯霞</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>吕丹</t>
+          <t>刘秀华</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>一直事情地区不同方面.</t>
+          <t>我的法律信息中心一次同时管理.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>金瑜</t>
+          <t>王璐</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>产品更新就是还有.</t>
+          <t>一个目前可以方面国际以上人民.</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>7</v>
@@ -3258,71 +3258,71 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45702.76988425926</v>
+        <v>45758.75725694445</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>所以下载女人设计合作一个.</t>
+          <t>如何全国制作.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>价格一般最后那个广告资源.</t>
+          <t>通过这种可是等级还有作品结果.</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>谭博</t>
+          <t>张玉</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>王桂花</t>
+          <t>唐利</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>标准有关最大所有.</t>
+          <t>搜索可以包括一些以下出现其实操作.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>王玉华</t>
+          <t>刘帅</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>这些问题电话您的我们作者.</t>
+          <t>设备因为应用如何工程以后这种城市.</t>
         </is>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45754.91146990741</v>
+        <v>45716.2225462963</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中国朋友得到这里精华文化本站有关.</t>
+          <t>活动更新软件安全时候成为.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>操作语言是否规定可能技术.</t>
+          <t>文件更多希望起来制作工程.</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -3330,51 +3330,51 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>张坤</t>
+          <t>刘玲</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>刘晶</t>
+          <t>程博</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>价格上海地址网站回复无法分析类型.</t>
+          <t>国内需要无法.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>王桂荣</t>
+          <t>颜桂芝</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>部门可能电话北京控制积分为了评论.</t>
+          <t>出来威望他们推荐欢迎.</t>
         </is>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45780.52869212963</v>
+        <v>45724.23289351852</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>城市只要情况今天这么语言.</t>
+          <t>他的地区但是.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>论坛看到服务广告.</t>
+          <t>行业文化处理免费汽车经济通过.</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -3382,51 +3382,51 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>胡飞</t>
+          <t>杨冬梅</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>赵超</t>
+          <t>翟霞</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>在线自己觉得一点那个.</t>
+          <t>发展空间政府您的新闻成为.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>郑琴</t>
+          <t>吴淑英</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>标题国内其实程序你们一些处理.</t>
+          <t>到了选择销售地方最后全部如果上海.</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45768.34479166667</v>
+        <v>45781.60776620371</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>都是密码发表论坛.</t>
+          <t>全部大学准备作者责任教育那些.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>实现觉得制作女人大学提供当前.</t>
+          <t>那些法律发展位置阅读.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -3434,398 +3434,86 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>陈红</t>
+          <t>许小红</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>邹玲</t>
+          <t>何飞</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>服务方式控制控制.</t>
+          <t>是否而且搜索全部只是品牌一定.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>彭柳</t>
+          <t>皮婷婷</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>在线设计发展一下.</t>
+          <t>比较中国位置.</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45787.59359953704</v>
+        <v>45774.51924768519</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>基本设计一直计划科技.</t>
+          <t>现在汽车一般主题质量产品男人今年.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>游戏可以进入今年.</t>
+          <t>游戏决定应用这么女人表示记者.</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>庞霞</t>
+          <t>王东</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>孙想</t>
+          <t>郑涛</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>研究准备非常出来通过比较一种.</t>
+          <t>或者专业你的喜欢.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>曾雪梅</t>
+          <t>梁瑞</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>论坛支持历史应该积分制作次数.</t>
+          <t>如此只有学校.</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>45689.53262731482</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>提供空间拥有.</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>其中提供政府分析无法.</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>范荣</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>李玉珍</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>说明不断电影本站增加如此详细市场.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>许秀英</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>增加发生运行国内生活世界.</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>45752.97875</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>广告我的拥有文章浏览.</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>一样教育文件社会成功项目工具.</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>陈建军</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>任俊</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>回复谢谢可能社区注意处理.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>吕想</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>谢谢全国可能来源不是成功处理.</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>45752.97875</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>广告我的拥有文章浏览.</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>一样教育文件社会成功项目工具.</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>陈建军</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>任俊</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>回复谢谢可能社区注意处理.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>吕想</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>谢谢全国可能来源不是成功处理.</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>45752.97875</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>广告我的拥有文章浏览.</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>一样教育文件社会成功项目工具.</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>陈建军</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>任俊</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>回复谢谢可能社区注意处理.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>吕想</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>谢谢全国可能来源不是成功处理.</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>45752.97875</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>广告我的拥有文章浏览.</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>一样教育文件社会成功项目工具.</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>陈建军</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>任俊</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>回复谢谢可能社区注意处理.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>吕想</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>谢谢全国可能来源不是成功处理.</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>45752.97875</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>广告我的拥有文章浏览.</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>一样教育文件社会成功项目工具.</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>陈建军</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>任俊</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>回复谢谢可能社区注意处理.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>吕想</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>谢谢全国可能来源不是成功处理.</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3885,12 +3573,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>东西</t>
+          <t>在线</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>功能是一使用帮助比较帮助.</t>
+          <t>作为根据历史一起.</t>
         </is>
       </c>
     </row>
@@ -3900,12 +3588,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>技术</t>
+          <t>问题</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>因此您的今天深圳语言.</t>
+          <t>一切不是影响评论今年作者.</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3603,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>或者</t>
+          <t>知道</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>不要内容可是首页销售免费商品那些.</t>
+          <t>介绍合作解决能够来自所有分析.</t>
         </is>
       </c>
     </row>
@@ -3930,12 +3618,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>标题</t>
+          <t>情况</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>全部情况什么他的这么没有.</t>
+          <t>全国浏览工具最大已经不会需要.</t>
         </is>
       </c>
     </row>
@@ -3945,12 +3633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>地址</t>
+          <t>朋友</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>生产法律记者不断作品她的可能因为.</t>
+          <t>本站软件法律一点我们包括.</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3648,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>需要</t>
+          <t>他的</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>还是搜索包括活动简介或者位置.</t>
+          <t>浏览发布中心一次拥有到了您的.</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3663,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>地区</t>
+          <t>基本</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>如此文章北京部门觉得电脑.</t>
+          <t>作者注意网站东西女人.</t>
         </is>
       </c>
     </row>
@@ -3990,12 +3678,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>在线</t>
+          <t>点击</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>建设系列她的游戏希望比较.</t>
+          <t>这种中文工程完成通过但是虽然.</t>
         </is>
       </c>
     </row>
@@ -4005,12 +3693,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>资料</t>
+          <t>她的</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>解决方法到了学习注册单位或者位置.</t>
+          <t>一定设备一点对于中文注意.</t>
         </is>
       </c>
     </row>
@@ -4020,12 +3708,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>业务</t>
+          <t>系列</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>信息时间同时世界次数最大.</t>
+          <t>教育发生大学国家那么.</t>
         </is>
       </c>
     </row>
